--- a/history-error-2025-12-19.xlsx
+++ b/history-error-2025-12-19.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -443,21 +443,55 @@
         <v>19/12/2025</v>
       </c>
       <c r="B2" t="str">
-        <v>16:54:41</v>
+        <v>18:11:29</v>
       </c>
       <c r="F2" t="str">
-        <v>1P0039000048</v>
+        <v>I</v>
       </c>
       <c r="G2" t="str">
         <v/>
       </c>
       <c r="H2" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>19/12/2025</v>
+      </c>
+      <c r="B3" t="str">
+        <v>17:48:41</v>
+      </c>
+      <c r="F3" t="str">
+        <v>1P0039000048</v>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>19/12/2025</v>
+      </c>
+      <c r="B4" t="str">
+        <v>16:54:41</v>
+      </c>
+      <c r="F4" t="str">
+        <v>1P0039000048</v>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
         <v>NOT_MATCHED</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
   </ignoredErrors>
 </worksheet>
 </file>